--- a/df_alojamientos.xlsx
+++ b/df_alojamientos.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J h o n\Tripday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J h o n\triptest\tripday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C84DC3-F478-45A4-B062-8F546F6E76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC2A38-35A9-4074-8FE0-1EC7FF4649E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="5250" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,21 +36,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="220">
   <si>
-    <t>Apartamento en Barranquilla</t>
-  </si>
-  <si>
     <t>Lujoso Duplex en Blue Gardens</t>
   </si>
   <si>
     <t>Apto Moderno,Excelente Ubicacion, Piscina,Parking.</t>
   </si>
   <si>
-    <t>Alojamiento en Barranquilla</t>
-  </si>
-  <si>
-    <t>*CASA* - alojamiento completo - Norte Barranquilla</t>
-  </si>
-  <si>
     <t>Villa en Puerto Colombia</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>Apartamento en Medellín</t>
-  </si>
-  <si>
     <t>1303 LUJOSO APARTAMENTO EN EL POBLADO MEDELLÌN</t>
   </si>
   <si>
@@ -252,15 +240,6 @@
     <t>El alojamiento es un duplex de 2 habitaciones, 2.5, moderno, amplio, esta completamente amoblado y equipado donde podrás apreciar una hermosa vista de la ciudad desde un piso 12. Tiene una distribución idónea para descansar, trabajar o compartir con amigos y familiares.El ApartaHotel Blue Gardens cuenta con recepción y seguridad las 24 horas, parqueadero privado, piscina en el último piso con espectacular vista a la ciudad y gimnasio.El espacioEs un moderno apartamento, con aire acondicionado central independiente, calentador de agua, excelente señal de wifi, cocina integral con estufa en vitroceramica, completamente amoblado y equipado con los elementos básicos de cocina</t>
   </si>
   <si>
-    <t>Tu y tus acompañantes de viaje, se sentiran muy comodos cuando se queden en este alojamiento, ubicado en el centro historico de Barranquilla, con la facilidad de acceso a un costado de una tienda Olimpica, a  tan solo una cuadra del C. C Portal del prado, avenidas principales e importantes lugares turisticos, comerciales, industriales, culturales  y deportivos de esta hermosa ciudad. &lt;br/&gt;Wifi, Television por Cable, Servicio de Piscina, Parqueadero Privado y para Visitantes.Número de permiso80718975</t>
-  </si>
-  <si>
-    <t>Si buscas una casa amplia, tranquila y con todas las comodidades para disfrutar tu estadia en Barranquilla, por trabajo o placer, esta es tu casa.Ubicada en uno de los barrios residenciales más exclusivos de la ciudad. Facilidad de acceso en transporte público o particular, cerca a centros comerciales y empresariales. Casa de dos pisos, con parqueadero interno y privado. Sala, comedor, cocina, zona de labores, patio y sala de televisión. Dormitorios con aire acondicionados y baño. Wifi.El espacioLa casa cuenta con todas las comodidades y espacios para disfrutar tus días en Barranquilla. Amplias habitaciones con aire acondicionado. Sala de TV, patio, terraza y balcón. Ubicada cerca a los mejores centros comerciales de la ciudad, como Buenavista, MallPlaza Buenavista, Viva, entre otros; restaurantes y punto de interés turístico. Esta en un barrio residencial, seguro y con facilidad de acceso</t>
-  </si>
-  <si>
-    <t>Espectacular apartamento de 2 habitaciones, dos y vestier. La sala de estar (living room) cuenta con un sofá cama doble, baño y terraza. Ideal para disfrutar con familia o amigos, con todas las comodidades y lujos que garantizan absoluta comodidad. Ubicado en barrio El Poblado de Medellín, cerca al Parque Lleras (3 minutos), Manila, Parque del Poblado, Provenza, Las Palmas, estaciones del metro, centros comerciales, etc. Tiene gimnasio, piscina, jacuzzi, billar, restaurante y zona lounge.El espacioCerca de sitios de interés y turísticos de la ciudad. En el entorno encontrarás restaurantes, bares y centros comerciales que complementan y hacen más agradable tu estadía.&lt;br/&gt;Cerca de estaciones del metro, a 3 minutos del PARQUE LLERAS</t>
-  </si>
-  <si>
     <t>Glamping estilo Teepe  en condominio mirador el sol, ubicado en Flandes - Tolima, estamos a 20 min aproximadamente de Xielo .&lt;br/&gt;Es un lugar  maravilloso en donde tienes la oportunidad  tener acceso directo al gran rio Magdalena ; clima cálido y muy soleado, es un lugar tranquilo, seguro y romántico que permite aislarte de la monotonía y el ruido de la cuidad,  tenemos áreas de recreación y descanso (Piscinas , cancha de tenis, cancha múltiple, BBQ privado Jacuzzi Privado, cocina campestre).Número de permiso126182</t>
   </si>
   <si>
@@ -411,15 +390,9 @@
     <t>BUSETA</t>
   </si>
   <si>
-    <t>Barranquilla</t>
-  </si>
-  <si>
     <t>Puerto Colombia</t>
   </si>
   <si>
-    <t>Medellín</t>
-  </si>
-  <si>
     <t>Flandes</t>
   </si>
   <si>
@@ -474,9 +447,6 @@
     <t>https://www.airbnb.com.co/rooms/37720232?adults=2&amp;check_in=2023-05-06&amp;check_out=2023-05-07&amp;federated_search_id=90ef3f84-662a-469a-ac64-15b8c48c990b&amp;source_impression_id=p3_1679885735_CX6G6Y%2Bi6gFyR1Xn</t>
   </si>
   <si>
-    <t>https://terminaldetransporte.redbus.co/searchbus?fromcityID=195201&amp;tocityID=195179&amp;fromcity=Bogota%20(D.C)%20(All%20Locations)&amp;tocity=Barranquilla%20(Atl)%20(Todos)&amp;datePicker=2023-03-27</t>
-  </si>
-  <si>
     <t>https://terminaldetransporte.redbus.co/searchbus?fromcityID=195201&amp;tocityID=195889&amp;fromcity=Bogota%20(D.C)%20(Todos)&amp;tocity=Anapoima%20(Cun)%20(Todos)&amp;datePicker=2023-03-28</t>
   </si>
   <si>
@@ -550,9 +520,6 @@
   </si>
   <si>
     <t>https://www.airbnb.com.co/rooms/36479298?adults=2&amp;check_in=2023-05-06&amp;check_out=2023-05-07&amp;federated_search_id=ac022804-ebf8-4d32-96a0-8f7eefb40c09&amp;source_impression_id=p3_1679887170_sezWynUoYq2Vom4x</t>
-  </si>
-  <si>
-    <t>https://terminaldetransporte.redbus.co/searchbus?fromcityID=195201&amp;tocityID=195179&amp;fromcity=Bogota%20(D.C)%20(Todos)&amp;tocity=Barranquilla%20(Atl)%20(Todos)&amp;datePicker=2023-03-29</t>
   </si>
   <si>
     <t>https://www.airbnb.com.co/rooms/756683105821485350?adults=2&amp;check_in=2023-05-06&amp;check_out=2023-05-07&amp;federated_search_id=40a05b81-fe9d-41fe-a8bb-ea71d53ac4f5&amp;source_impression_id=p3_1679887350_CX0hvLaUG%2BPyOGbY</t>
@@ -695,6 +662,39 @@
   </si>
   <si>
     <t>Me encanta el lugar, es super tranquilo, tienes lo que necesitas, el Sr. Robert super atento.</t>
+  </si>
+  <si>
+    <t>Mesitas</t>
+  </si>
+  <si>
+    <t>Apartamento en Mesitas</t>
+  </si>
+  <si>
+    <t>https://terminaldetransporte.redbus.co/searchbus?fromcityID=195201&amp;tocityID=195179&amp;fromcity=Bogota%20(D.C)%20(All%20Locations)&amp;tocity=Mesitas%20(Atl)%20(Todos)&amp;datePicker=2023-03-27</t>
+  </si>
+  <si>
+    <t>Tu y tus acompañantes de viaje, se sentiran muy comodos cuando se queden en este alojamiento, ubicado en el centro historico de Mesitas, con la facilidad de acceso a un costado de una tienda Olimpica, a  tan solo una cuadra del C. C Portal del prado, avenidas principales e importantes lugares turisticos, comerciales, industriales, culturales  y deportivos de esta hermosa ciudad. &lt;br/&gt;Wifi, Television por Cable, Servicio de Piscina, Parqueadero Privado y para Visitantes.Número de permiso80718975</t>
+  </si>
+  <si>
+    <t>*CASA* - alojamiento completo - Norte Mesitas</t>
+  </si>
+  <si>
+    <t>Alojamiento en Mesitas</t>
+  </si>
+  <si>
+    <t>Si buscas una casa amplia, tranquila y con todas las comodidades para disfrutar tu estadia en Mesitas, por trabajo o placer, esta es tu casa.Ubicada en uno de los barrios residenciales más exclusivos de la ciudad. Facilidad de acceso en transporte público o particular, cerca a centros comerciales y empresariales. Casa de dos pisos, con parqueadero interno y privado. Sala, comedor, cocina, zona de labores, patio y sala de televisión. Dormitorios con aire acondicionados y baño. Wifi.El espacioLa casa cuenta con todas las comodidades y espacios para disfrutar tus días en Mesitas. Amplias habitaciones con aire acondicionado. Sala de TV, patio, terraza y balcón. Ubicada cerca a los mejores centros comerciales de la ciudad, como Buenavista, MallPlaza Buenavista, Viva, entre otros; restaurantes y punto de interés turístico. Esta en un barrio residencial, seguro y con facilidad de acceso</t>
+  </si>
+  <si>
+    <t>https://terminaldetransporte.redbus.co/searchbus?fromcityID=195201&amp;tocityID=195179&amp;fromcity=Bogota%20(D.C)%20(Todos)&amp;tocity=Mesitas%20(Atl)%20(Todos)&amp;datePicker=2023-03-29</t>
+  </si>
+  <si>
+    <t>Silvania</t>
+  </si>
+  <si>
+    <t>Apartamento en Silvania</t>
+  </si>
+  <si>
+    <t>Espectacular apartamento de 2 habitaciones, dos y vestier. La sala de estar (living room) cuenta con un sofá cama doble, baño y terraza. Ideal para disfrutar con familia o amigos, con todas las comodidades y lujos que garantizan absoluta comodidad. Ubicado en barrio El Poblado de Silvania, cerca al Parque Lleras (3 minutos), Manila, Parque del Poblado, Provenza, Las Palmas, estaciones del metro, centros comerciales, etc. Tiene gimnasio, piscina, jacuzzi, billar, restaurante y zona lounge.El espacioCerca de sitios de interés y turísticos de la ciudad. En el entorno encontrarás restaurantes, bares y centros comerciales que complementan y hacen más agradable tu estadía.&lt;br/&gt;Cerca de estaciones del metro, a 3 minutos del PARQUE LLERAS</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,67 +1135,67 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1239,31 +1239,31 @@
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O2" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="9">
         <v>40000</v>
       </c>
       <c r="R2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="V2" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -1271,19 +1271,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1307,31 +1307,31 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="9">
         <v>40000</v>
       </c>
       <c r="R3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="V3" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -1339,19 +1339,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1375,31 +1375,31 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O4" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="9">
         <v>22000</v>
       </c>
       <c r="R4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="V4" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1407,19 +1407,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1443,31 +1443,31 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="9">
         <v>130000</v>
       </c>
       <c r="R5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U5" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="V5" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1475,19 +1475,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1511,31 +1511,31 @@
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="9">
         <v>110000</v>
       </c>
       <c r="R6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="V6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1543,19 +1543,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1579,31 +1579,31 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" t="s">
         <v>115</v>
-      </c>
-      <c r="O7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" t="s">
-        <v>122</v>
       </c>
       <c r="Q7" s="9">
         <v>110000</v>
       </c>
       <c r="R7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="V7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1611,19 +1611,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1647,31 +1647,31 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="9">
         <v>110000</v>
       </c>
       <c r="R8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="V8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1679,19 +1679,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1715,31 +1715,31 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="9">
         <v>110000</v>
       </c>
       <c r="R9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="V9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1747,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1783,31 +1783,31 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" t="s">
         <v>115</v>
-      </c>
-      <c r="O10" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" t="s">
-        <v>122</v>
       </c>
       <c r="Q10" s="9">
         <v>32000</v>
       </c>
       <c r="R10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="V10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -1815,19 +1815,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1851,31 +1851,31 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="9">
         <v>40000</v>
       </c>
       <c r="R11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U11" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="V11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -1883,19 +1883,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1919,31 +1919,31 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" t="s">
         <v>116</v>
-      </c>
-      <c r="P12" t="s">
-        <v>123</v>
       </c>
       <c r="Q12" s="9">
         <v>32000</v>
       </c>
       <c r="R12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U12" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="V12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -1951,19 +1951,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1987,31 +1987,31 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="9">
         <v>22000</v>
       </c>
       <c r="R13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U13" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="V13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -2019,19 +2019,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2055,31 +2055,31 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="9">
         <v>40000</v>
       </c>
       <c r="R14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U14" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="V14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -2087,19 +2087,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2123,31 +2123,31 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="9">
         <v>40000</v>
       </c>
       <c r="R15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="V15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -2155,19 +2155,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2191,31 +2191,31 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="9">
         <v>22000</v>
       </c>
       <c r="R16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="V16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2223,19 +2223,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2259,31 +2259,31 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="9">
         <v>22000</v>
       </c>
       <c r="R17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="V17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -2291,19 +2291,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -2327,31 +2327,31 @@
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="9">
         <v>40000</v>
       </c>
       <c r="R18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T18" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="V18" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -2359,19 +2359,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2395,31 +2395,31 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="9">
         <v>22000</v>
       </c>
       <c r="R19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="V19" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -2427,19 +2427,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2463,31 +2463,31 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" t="s">
         <v>115</v>
-      </c>
-      <c r="O20" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" t="s">
-        <v>122</v>
       </c>
       <c r="Q20" s="9">
         <v>22000</v>
       </c>
       <c r="R20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U20" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -2495,19 +2495,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -2531,31 +2531,31 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q21" s="9">
         <v>27000</v>
       </c>
       <c r="R21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S21" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U21" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="V21" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -2563,19 +2563,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2599,31 +2599,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="9">
         <v>22000</v>
       </c>
       <c r="R22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T22" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="V22" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2631,19 +2631,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2667,31 +2667,31 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="9">
         <v>30000</v>
       </c>
       <c r="R23" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T23" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U23" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="V23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -2699,19 +2699,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2735,31 +2735,31 @@
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="9">
         <v>22000</v>
       </c>
       <c r="R24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U24" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="V24" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -2767,19 +2767,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2803,31 +2803,31 @@
         <v>2</v>
       </c>
       <c r="N25" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="s">
         <v>115</v>
-      </c>
-      <c r="O25" t="s">
-        <v>116</v>
-      </c>
-      <c r="P25" t="s">
-        <v>122</v>
       </c>
       <c r="Q25" s="9">
         <v>22000</v>
       </c>
       <c r="R25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T25" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U25" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="V25" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -2835,19 +2835,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2871,31 +2871,31 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="9">
         <v>22000</v>
       </c>
       <c r="R26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U26" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="V26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -2903,19 +2903,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2939,31 +2939,31 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" t="s">
         <v>115</v>
-      </c>
-      <c r="O27" t="s">
-        <v>116</v>
-      </c>
-      <c r="P27" t="s">
-        <v>122</v>
       </c>
       <c r="Q27" s="9">
         <v>22000</v>
       </c>
       <c r="R27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T27" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U27" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="V27" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -2971,19 +2971,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G28">
         <v>4</v>
@@ -3007,25 +3007,25 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P28" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="9">
         <v>22000</v>
       </c>
       <c r="R28" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T28" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -3033,19 +3033,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -3069,31 +3069,31 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O29" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="9">
         <v>22000</v>
       </c>
       <c r="R29" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S29" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U29" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V29" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -3101,19 +3101,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3137,31 +3137,31 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" t="s">
         <v>115</v>
-      </c>
-      <c r="O30" t="s">
-        <v>116</v>
-      </c>
-      <c r="P30" t="s">
-        <v>122</v>
       </c>
       <c r="Q30" s="9">
         <v>22000</v>
       </c>
       <c r="R30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S30" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U30" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="V30" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3169,19 +3169,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3205,31 +3205,31 @@
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P31" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q31" s="9">
         <v>22000</v>
       </c>
       <c r="R31" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T31" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U31" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="V31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3237,19 +3237,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3273,31 +3273,31 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q32" s="9">
         <v>27000</v>
       </c>
       <c r="R32" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T32" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U32" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="V32" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3305,19 +3305,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3341,31 +3341,31 @@
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P33" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q33" s="9">
         <v>22000</v>
       </c>
       <c r="R33" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T33" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U33" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="V33" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3373,19 +3373,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3409,31 +3409,31 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O34" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P34" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q34" s="9">
         <v>22000</v>
       </c>
       <c r="R34" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S34" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T34" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U34" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V34" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3441,19 +3441,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3477,31 +3477,31 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O35" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P35" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q35" s="9">
         <v>22000</v>
       </c>
       <c r="R35" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S35" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U35" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="V35" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3509,19 +3509,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3545,31 +3545,31 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P36" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q36" s="9">
         <v>22000</v>
       </c>
       <c r="R36" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S36" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T36" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U36" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="V36" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3577,19 +3577,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3613,31 +3613,31 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O37" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P37" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q37" s="9">
         <v>22000</v>
       </c>
       <c r="R37" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S37" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T37" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U37" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="V37" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3645,19 +3645,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3681,31 +3681,31 @@
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O38" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P38" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q38" s="9">
         <v>40000</v>
       </c>
       <c r="R38" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S38" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T38" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U38" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="V38" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3713,19 +3713,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3749,31 +3749,31 @@
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O39" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P39" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q39" s="9">
         <v>40000</v>
       </c>
       <c r="R39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T39" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U39" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="V39" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -3781,19 +3781,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3817,31 +3817,31 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O40" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="P40" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q40" s="9">
         <v>22000</v>
       </c>
       <c r="R40" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T40" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U40" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="V40" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -3849,19 +3849,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3885,31 +3885,31 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O41" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q41" s="9">
         <v>130000</v>
       </c>
       <c r="R41" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S41" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U41" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="V41" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -3917,19 +3917,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="F42" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3953,31 +3953,31 @@
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O42" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="P42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q42" s="9">
         <v>110000</v>
       </c>
       <c r="R42" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S42" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U42" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="V42" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -3985,19 +3985,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4021,31 +4021,31 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
+        <v>108</v>
+      </c>
+      <c r="O43" t="s">
+        <v>217</v>
+      </c>
+      <c r="P43" t="s">
         <v>115</v>
-      </c>
-      <c r="O43" t="s">
-        <v>127</v>
-      </c>
-      <c r="P43" t="s">
-        <v>122</v>
       </c>
       <c r="Q43" s="9">
         <v>110000</v>
       </c>
       <c r="R43" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S43" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T43" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U43" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="V43" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -4053,19 +4053,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4089,31 +4089,31 @@
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O44" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="P44" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q44" s="9">
         <v>110000</v>
       </c>
       <c r="R44" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S44" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T44" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U44" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="V44" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -4121,19 +4121,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4157,31 +4157,31 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O45" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="P45" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q45" s="9">
         <v>110000</v>
       </c>
       <c r="R45" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S45" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T45" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U45" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="V45" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -4189,19 +4189,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F46" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4225,31 +4225,31 @@
         <v>2</v>
       </c>
       <c r="N46" t="s">
+        <v>108</v>
+      </c>
+      <c r="O46" t="s">
+        <v>119</v>
+      </c>
+      <c r="P46" t="s">
         <v>115</v>
-      </c>
-      <c r="O46" t="s">
-        <v>128</v>
-      </c>
-      <c r="P46" t="s">
-        <v>122</v>
       </c>
       <c r="Q46" s="9">
         <v>32000</v>
       </c>
       <c r="R46" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S46" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T46" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U46" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="V46" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -4257,19 +4257,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4293,31 +4293,31 @@
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O47" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q47" s="9">
         <v>40000</v>
       </c>
       <c r="R47" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S47" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T47" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U47" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="V47" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -4325,19 +4325,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4361,31 +4361,31 @@
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O48" t="s">
+        <v>109</v>
+      </c>
+      <c r="P48" t="s">
         <v>116</v>
-      </c>
-      <c r="P48" t="s">
-        <v>123</v>
       </c>
       <c r="Q48" s="9">
         <v>32000</v>
       </c>
       <c r="R48" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T48" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U48" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="V48" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -4393,19 +4393,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4429,31 +4429,31 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O49" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q49" s="9">
         <v>22000</v>
       </c>
       <c r="R49" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S49" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U49" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="V49" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -4461,19 +4461,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4497,31 +4497,31 @@
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O50" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P50" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q50" s="9">
         <v>40000</v>
       </c>
       <c r="R50" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S50" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T50" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U50" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="V50" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -4529,19 +4529,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4565,31 +4565,31 @@
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O51" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P51" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q51" s="9">
         <v>40000</v>
       </c>
       <c r="R51" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S51" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T51" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U51" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="V51" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -4597,19 +4597,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4633,31 +4633,31 @@
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O52" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P52" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q52" s="9">
         <v>22000</v>
       </c>
       <c r="R52" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S52" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T52" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U52" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="V52" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -4665,19 +4665,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -4701,31 +4701,31 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O53" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q53" s="9">
         <v>22000</v>
       </c>
       <c r="R53" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S53" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T53" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U53" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="V53" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -4733,19 +4733,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -4769,31 +4769,31 @@
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O54" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q54" s="9">
         <v>40000</v>
       </c>
       <c r="R54" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S54" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T54" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U54" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="V54" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -4801,19 +4801,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4837,31 +4837,31 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O55" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P55" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q55" s="9">
         <v>22000</v>
       </c>
       <c r="R55" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S55" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T55" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U55" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="V55" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -4869,19 +4869,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4905,31 +4905,31 @@
         <v>2</v>
       </c>
       <c r="N56" t="s">
+        <v>108</v>
+      </c>
+      <c r="O56" t="s">
+        <v>121</v>
+      </c>
+      <c r="P56" t="s">
         <v>115</v>
-      </c>
-      <c r="O56" t="s">
-        <v>130</v>
-      </c>
-      <c r="P56" t="s">
-        <v>122</v>
       </c>
       <c r="Q56" s="9">
         <v>22000</v>
       </c>
       <c r="R56" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S56" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T56" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U56" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="V56" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -4937,19 +4937,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -4973,31 +4973,31 @@
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O57" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Q57" s="9">
         <v>27000</v>
       </c>
       <c r="R57" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S57" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T57" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U57" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="V57" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5005,19 +5005,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5041,31 +5041,31 @@
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O58" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P58" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q58" s="9">
         <v>22000</v>
       </c>
       <c r="R58" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T58" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U58" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="V58" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -5073,19 +5073,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5109,31 +5109,31 @@
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O59" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Q59" s="9">
         <v>30000</v>
       </c>
       <c r="R59" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S59" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T59" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U59" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="V59" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5141,19 +5141,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5177,31 +5177,31 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O60" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P60" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q60" s="9">
         <v>22000</v>
       </c>
       <c r="R60" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S60" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T60" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U60" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="V60" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -5209,19 +5209,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5245,31 +5245,31 @@
         <v>2</v>
       </c>
       <c r="N61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O61" t="s">
+        <v>109</v>
+      </c>
+      <c r="P61" t="s">
         <v>115</v>
-      </c>
-      <c r="O61" t="s">
-        <v>116</v>
-      </c>
-      <c r="P61" t="s">
-        <v>122</v>
       </c>
       <c r="Q61" s="9">
         <v>22000</v>
       </c>
       <c r="R61" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S61" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T61" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U61" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="V61" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -5277,19 +5277,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F62" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5313,31 +5313,31 @@
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O62" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q62" s="9">
         <v>22000</v>
       </c>
       <c r="R62" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S62" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T62" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U62" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="V62" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
@@ -5345,19 +5345,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5381,31 +5381,31 @@
         <v>2</v>
       </c>
       <c r="N63" t="s">
+        <v>108</v>
+      </c>
+      <c r="O63" t="s">
+        <v>109</v>
+      </c>
+      <c r="P63" t="s">
         <v>115</v>
-      </c>
-      <c r="O63" t="s">
-        <v>116</v>
-      </c>
-      <c r="P63" t="s">
-        <v>122</v>
       </c>
       <c r="Q63" s="9">
         <v>22000</v>
       </c>
       <c r="R63" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S63" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T63" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U63" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="V63" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -5413,19 +5413,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5449,25 +5449,25 @@
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O64" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q64" s="9">
         <v>22000</v>
       </c>
       <c r="R64" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S64" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T64" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -5475,19 +5475,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -5511,31 +5511,31 @@
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O65" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q65" s="9">
         <v>22000</v>
       </c>
       <c r="R65" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S65" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T65" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U65" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="V65" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -5543,19 +5543,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -5579,31 +5579,31 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
+        <v>108</v>
+      </c>
+      <c r="O66" t="s">
+        <v>109</v>
+      </c>
+      <c r="P66" t="s">
         <v>115</v>
-      </c>
-      <c r="O66" t="s">
-        <v>116</v>
-      </c>
-      <c r="P66" t="s">
-        <v>122</v>
       </c>
       <c r="Q66" s="9">
         <v>22000</v>
       </c>
       <c r="R66" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S66" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T66" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U66" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="V66" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5611,19 +5611,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -5647,31 +5647,31 @@
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O67" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P67" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q67" s="9">
         <v>22000</v>
       </c>
       <c r="R67" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S67" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T67" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U67" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="V67" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5679,19 +5679,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -5715,31 +5715,31 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O68" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P68" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q68" s="9">
         <v>27000</v>
       </c>
       <c r="R68" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S68" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T68" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U68" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="V68" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5747,19 +5747,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -5783,31 +5783,31 @@
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O69" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P69" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q69" s="9">
         <v>22000</v>
       </c>
       <c r="R69" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S69" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T69" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U69" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="V69" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5815,19 +5815,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -5851,31 +5851,31 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O70" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q70" s="9">
         <v>22000</v>
       </c>
       <c r="R70" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S70" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T70" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U70" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="V70" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5883,19 +5883,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -5919,31 +5919,31 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O71" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q71" s="9">
         <v>22000</v>
       </c>
       <c r="R71" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S71" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T71" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U71" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="V71" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -5951,19 +5951,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -5987,31 +5987,31 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O72" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q72" s="9">
         <v>22000</v>
       </c>
       <c r="R72" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S72" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T72" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U72" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="V72" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
@@ -6019,19 +6019,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6055,35 +6055,35 @@
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O73" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P73" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q73" s="9">
         <v>22000</v>
       </c>
       <c r="R73" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S73" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T73" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="U73" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="V73" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V37" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>